--- a/biology/Botanique/Pelazoneuron_kunthii/Pelazoneuron_kunthii.xlsx
+++ b/biology/Botanique/Pelazoneuron_kunthii/Pelazoneuron_kunthii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelazoneuron kunthii est une espèce de plantes de la famille des Thelypteridaceae. Elle est parfois connue sous le nom de Fougère vierge de Kunth ou Fougère du bouclier du Sud.
 C'est une plante vivace qui pousse principalement dans le biome subtropical. C'est la plus commune des fougères dans le Sud-Est des États-Unis, au sud de la ligne de chute. Elle s'étend vers l'ouest jusqu'à l'Est du Texas. Elle pousse généralement dans des situations terrestres humides à sèches, mais peut également être épipétrique. Elle est souvent cultivée sous serre dans les zones situées au nord de son aire de répartition habituelle.
-Pelazoneuron kunthii est utilisé pour traiter des troubles médicaux non précisés et comme médicament[1].
+Pelazoneuron kunthii est utilisé pour traiter des troubles médicaux non précisés et comme médicament.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pelazoneuron kunthii (Desv.) A.R.Sm. &amp; S.E.Fawc.[2].
-L'espèce a été initialement classée dans le genre Nephrodium sous le basionyme Nephrodium kunthii Desv.[2].
-Pelazoneuron kunthii a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pelazoneuron kunthii (Desv.) A.R.Sm. &amp; S.E.Fawc..
+L'espèce a été initialement classée dans le genre Nephrodium sous le basionyme Nephrodium kunthii Desv..
+Pelazoneuron kunthii a pour synonymes :
 Christella burundensis Pic.Serm.
 Christella normalis (C.Chr.) Holttum
 Cyclosorus burundensis (Pic.Serm.) Mazumdar &amp; Mukhop.
